--- a/medicine/Enfance/Bérengère_Cournut/Bérengère_Cournut.xlsx
+++ b/medicine/Enfance/Bérengère_Cournut/Bérengère_Cournut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9reng%C3%A8re_Cournut</t>
+          <t>Bérengère_Cournut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bérengère Cournut (/kuʁnyt/[1]), née en 1979[1],[2] ou 1980[3], à Asnières-sur-Seine, est une écrivaine française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bérengère Cournut (/kuʁnyt/), née en 1979, ou 1980, à Asnières-sur-Seine, est une écrivaine française.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9reng%C3%A8re_Cournut</t>
+          <t>Bérengère_Cournut</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bérengère Cournut écrit sous des formes diverses depuis l'âge de vingt ans. 
 Ses premiers livres exploraient essentiellement des territoires oniriques, où l'eau se mêle à la terre (L'Écorcobaliseur, Attila, 2008), où la plaine fabrique des otaries et des renards (Nanoushkaïa, L'Oie de Cravan, 2009), où la glace se pique à la chaleur du désert (Wendy Ratherfight, L'Oie de Cravan, 2013).
 D'une autre manière, Bérengère Cournut a poursuivi sa recherche d'une vision alternative du monde : 
-- en 2017, avec Née contente à Oraibi (Le Tripode), roman d'immersion sur les plateaux arides d'Arizona, au sein du peuple hopi[4] ; 
-- en 2019, avec De pierre et d'os (Le Tripode), roman empreint à la fois de douceur, d’écologie et de spiritualité, qui nous plonge dans le destin solaire d’une jeune femme inuit[5]. Pour ce dernier ouvrage, qui se vend à plus de cent mille exemplaires[1], elle remporte le prix du roman Fnac 2019[6],[7].
-- en 2020, elle reçoit une "Mention" au prestigieux prix international, le Prix BolognaRagazzi[8], dans la catégorie Fiction, à la Foire du livre de jeunesse de Bologne pour Le Roi de la lune qu'elle a écrit, illustré par Donatien Mary.
+- en 2017, avec Née contente à Oraibi (Le Tripode), roman d'immersion sur les plateaux arides d'Arizona, au sein du peuple hopi ; 
+- en 2019, avec De pierre et d'os (Le Tripode), roman empreint à la fois de douceur, d’écologie et de spiritualité, qui nous plonge dans le destin solaire d’une jeune femme inuit. Pour ce dernier ouvrage, qui se vend à plus de cent mille exemplaires, elle remporte le prix du roman Fnac 2019,.
+- en 2020, elle reçoit une "Mention" au prestigieux prix international, le Prix BolognaRagazzi, dans la catégorie Fiction, à la Foire du livre de jeunesse de Bologne pour Le Roi de la lune qu'elle a écrit, illustré par Donatien Mary.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9reng%C3%A8re_Cournut</t>
+          <t>Bérengère_Cournut</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’Écorcobaliseur, dessins de Victor Brauner, Le Rayol, France, Éditions Attila, 2008, 192 p.  (ISBN 978-2-917084-03-8)
 Schasslamitt, et autres contes palpitants, pochoirs de Donatien Mary, Paris, France, Éditions Attila, 2012, 85 p.  (ISBN 978-2-917084-46-5)
